--- a/VoltageSensor.xlsx
+++ b/VoltageSensor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NMichael\Projects\AA_NicoProjects\Arduino\SmartCharger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35A4C93-B81E-417E-836D-FD2F58DF929F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62259809-5C03-4920-A40E-4583C8978F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2532" yWindow="384" windowWidth="17280" windowHeight="11640" xr2:uid="{6D0FE47F-0DF7-419F-BA0F-E4F16246B8D1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="13">
   <si>
     <t>Battery Voltage</t>
   </si>
@@ -56,12 +56,33 @@
   <si>
     <t>Bettery level</t>
   </si>
+  <si>
+    <t>Vin</t>
+  </si>
+  <si>
+    <t>Zenner</t>
+  </si>
+  <si>
+    <t>Vout</t>
+  </si>
+  <si>
+    <t>6V8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Ohm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;R&quot;\ #,##0;[Red]&quot;R&quot;\ \-#,##0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +101,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -157,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -174,6 +203,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8920AC9B-E6BD-459A-8C2B-EF6563EBE9F3}">
-  <dimension ref="E4:P32"/>
+  <dimension ref="E4:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1077,6 +1111,187 @@
         <v>15345</v>
       </c>
     </row>
+    <row r="35" spans="5:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="8">
+        <v>1</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" s="8">
+        <v>2</v>
+      </c>
+      <c r="K35" s="7"/>
+      <c r="L35" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36">
+        <v>560</v>
+      </c>
+      <c r="I36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36">
+        <v>470</v>
+      </c>
+      <c r="K36" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="M36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>560</v>
+      </c>
+      <c r="I37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37">
+        <v>470</v>
+      </c>
+      <c r="K37" t="s">
+        <v>12</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <v>13.8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38">
+        <v>560</v>
+      </c>
+      <c r="I38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38">
+        <v>470</v>
+      </c>
+      <c r="K38" t="s">
+        <v>12</v>
+      </c>
+      <c r="L38">
+        <v>3.19</v>
+      </c>
+      <c r="M38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>560</v>
+      </c>
+      <c r="I39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39">
+        <v>470</v>
+      </c>
+      <c r="K39" t="s">
+        <v>12</v>
+      </c>
+      <c r="L39">
+        <v>2.83</v>
+      </c>
+      <c r="M39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <v>12.5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40">
+        <v>560</v>
+      </c>
+      <c r="I40" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40">
+        <v>470</v>
+      </c>
+      <c r="K40" t="s">
+        <v>12</v>
+      </c>
+      <c r="L40">
+        <v>2.6</v>
+      </c>
+      <c r="M40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>560</v>
+      </c>
+      <c r="I41" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41">
+        <v>470</v>
+      </c>
+      <c r="K41" t="s">
+        <v>12</v>
+      </c>
+      <c r="L41">
+        <v>2.37</v>
+      </c>
+      <c r="M41" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
